--- a/biology/Botanique/Jardin_Cyprian-Norwid/Jardin_Cyprian-Norwid.xlsx
+++ b/biology/Botanique/Jardin_Cyprian-Norwid/Jardin_Cyprian-Norwid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Cyprian-Norwid est un jardin public dans le quartier de la Gare du 13e arrondissement de Paris. 
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par les rues des Grands-Moulins, des Cadets-de-la-France-Libre et Thomas-Mann.
 Il est desservi par la ligne de métro de Paris 14 à la station Bibliothèque François-Mitterrand.
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dessiné par Sylvie et Francis Farges, paysagistes de l'atelier Tournesol[1], il comporte pelouses accessibles, arbres, arbustes et quelques jeux pour enfants.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dessiné par Sylvie et Francis Farges, paysagistes de l'atelier Tournesol, il comporte pelouses accessibles, arbres, arbustes et quelques jeux pour enfants.
 À quelques pas de là, rue du Chevaleret, se trouve l'Œuvre de Saint-Casimir, maison de repos entretenue par des sœurs polonaises de l'ordre des Sœurs de la Charité, construite en 1860, où Cyprian Norwid est accueilli de 1877 jusqu'à sa mort.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il porte le nom de Cyprian Kamil Norwid (1821-1883), poète, écrivain, auteur dramatique, penseur et peintre polonais, qui a vécu rue du Chevaleret.
 			Une des entrées du jardin.
@@ -610,7 +628,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin est créé en 2004 sur dalle dans le cadre de l'aménagement de la ZAC Paris Rive Gauche.
 </t>
